--- a/SVM/List of Currencies and Sources.xlsx
+++ b/SVM/List of Currencies and Sources.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaylo\Desktop\UpTic\SentimentUptick\news-python-database-sentiment\SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D66B4-6569-4433-AF1A-4F3F821B68B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB7591-B3C2-4B33-B4AB-EA8E5E6BB02D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{4B5D786C-2D55-D641-A677-D0AC7395799B}"/>
   </bookViews>
   <sheets>
     <sheet name="Currency List" sheetId="1" r:id="rId1"/>
-    <sheet name="Source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Source!$A$1:$A$68</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="520">
   <si>
     <t>LSK</t>
   </si>
@@ -1465,408 +1461,6 @@
   </si>
   <si>
     <t>Currency Name</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Crypto Coins News</t>
-  </si>
-  <si>
-    <t>Newsbtc.com</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>Prnewswire.com</t>
-  </si>
-  <si>
-    <t>Bitcoinist.com</t>
-  </si>
-  <si>
-    <t>Coindesk.com</t>
-  </si>
-  <si>
-    <t>Forbes.com</t>
-  </si>
-  <si>
-    <t>Hackernoon.com</t>
-  </si>
-  <si>
-    <t>USA Today</t>
-  </si>
-  <si>
-    <t>Bitcoinmagazine.com</t>
-  </si>
-  <si>
-    <t>Seekingalpha.com</t>
-  </si>
-  <si>
-    <t>Cointelegraph.com</t>
-  </si>
-  <si>
-    <t>Investopedia.com</t>
-  </si>
-  <si>
-    <t>CNBC</t>
-  </si>
-  <si>
-    <t>Google News</t>
-  </si>
-  <si>
-    <t>Business Insider</t>
-  </si>
-  <si>
-    <t>Marketwatch.com</t>
-  </si>
-  <si>
-    <t>Dailyfx.com</t>
-  </si>
-  <si>
-    <t>Zerohedge.com</t>
-  </si>
-  <si>
-    <t>Decentralized.tv</t>
-  </si>
-  <si>
-    <t>Reuters</t>
-  </si>
-  <si>
-    <t>Fortune</t>
-  </si>
-  <si>
-    <t>Hacked.com</t>
-  </si>
-  <si>
-    <t>TechCrunch</t>
-  </si>
-  <si>
-    <t>Zdnet.com</t>
-  </si>
-  <si>
-    <t>Yahoo.com</t>
-  </si>
-  <si>
-    <t>Venturebeat.com</t>
-  </si>
-  <si>
-    <t>Medium.com</t>
-  </si>
-  <si>
-    <t>247wallst.com</t>
-  </si>
-  <si>
-    <t>Bloomberg</t>
-  </si>
-  <si>
-    <t>Cnet.com</t>
-  </si>
-  <si>
-    <t>Fool.com</t>
-  </si>
-  <si>
-    <t>Dzone.com</t>
-  </si>
-  <si>
-    <t>Entrepreneur.com</t>
-  </si>
-  <si>
-    <t>Financial Times</t>
-  </si>
-  <si>
-    <t>Bostonglobe.com</t>
-  </si>
-  <si>
-    <t>Dailyfintech.com</t>
-  </si>
-  <si>
-    <t>Financial Post</t>
-  </si>
-  <si>
-    <t>The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>Mashable</t>
-  </si>
-  <si>
-    <t>The New York Times</t>
-  </si>
-  <si>
-    <t>Coinbase.com</t>
-  </si>
-  <si>
-    <t>Darkreading.com</t>
-  </si>
-  <si>
-    <t>Geekwire.com</t>
-  </si>
-  <si>
-    <t>Barrons.com</t>
-  </si>
-  <si>
-    <t>99bitcoins.com</t>
-  </si>
-  <si>
-    <t>Digitaltrends.com</t>
-  </si>
-  <si>
-    <t>Latimes.com</t>
-  </si>
-  <si>
-    <t>Harvard.edu</t>
-  </si>
-  <si>
-    <t>Coinfabrik.com</t>
-  </si>
-  <si>
-    <t>Digitaljournal.com</t>
-  </si>
-  <si>
-    <t>Blocksparks.io</t>
-  </si>
-  <si>
-    <t>Hacker News</t>
-  </si>
-  <si>
-    <t>Associated Press</t>
-  </si>
-  <si>
-    <t>Crypto-reporter.com</t>
-  </si>
-  <si>
-    <t>Newsweek</t>
-  </si>
-  <si>
-    <t>The Verge</t>
-  </si>
-  <si>
-    <t>Morningstar.com</t>
-  </si>
-  <si>
-    <t>The Washington Post</t>
-  </si>
-  <si>
-    <t>Bitsonline.com</t>
-  </si>
-  <si>
-    <t>Bitcoin.com</t>
-  </si>
-  <si>
-    <t>Youtube.com</t>
-  </si>
-  <si>
-    <t>Blockchainresearchnetwork.org</t>
-  </si>
-  <si>
-    <t>Ethereumworldnews.com</t>
-  </si>
-  <si>
-    <t>Cbinsights.com</t>
-  </si>
-  <si>
-    <t>Gizmodo.com</t>
-  </si>
-  <si>
-    <t>Theweek.com</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>ccn.com</t>
-  </si>
-  <si>
-    <t>cnn.com</t>
-  </si>
-  <si>
-    <t>usatoday.com</t>
-  </si>
-  <si>
-    <t>cnbc.com</t>
-  </si>
-  <si>
-    <t>businessinsider.com</t>
-  </si>
-  <si>
-    <t>news.google.com</t>
-  </si>
-  <si>
-    <t>reuters.com</t>
-  </si>
-  <si>
-    <t>fortune.com</t>
-  </si>
-  <si>
-    <t>techcrunch.com</t>
-  </si>
-  <si>
-    <t>bloomberg.com</t>
-  </si>
-  <si>
-    <t>ft.com</t>
-  </si>
-  <si>
-    <t>business.financialpost.com</t>
-  </si>
-  <si>
-    <t>wsj.com</t>
-  </si>
-  <si>
-    <t>mashable.com</t>
-  </si>
-  <si>
-    <t>nytimes.com</t>
-  </si>
-  <si>
-    <t>thehackernews.com</t>
-  </si>
-  <si>
-    <t>ap.org</t>
-  </si>
-  <si>
-    <t>newsweek.com</t>
-  </si>
-  <si>
-    <t>theverge.com</t>
-  </si>
-  <si>
-    <t>washingtonpost.com</t>
-  </si>
-  <si>
-    <t>newsbtc.com</t>
-  </si>
-  <si>
-    <t>prnewswire.com</t>
-  </si>
-  <si>
-    <t>bitcoinist.com</t>
-  </si>
-  <si>
-    <t>coindesk.com</t>
-  </si>
-  <si>
-    <t>forbes.com</t>
-  </si>
-  <si>
-    <t>hackernoon.com</t>
-  </si>
-  <si>
-    <t>bitcoinmagazine.com</t>
-  </si>
-  <si>
-    <t>seekingalpha.com</t>
-  </si>
-  <si>
-    <t>cointelegraph.com</t>
-  </si>
-  <si>
-    <t>investopedia.com</t>
-  </si>
-  <si>
-    <t>marketwatch.com</t>
-  </si>
-  <si>
-    <t>dailyfx.com</t>
-  </si>
-  <si>
-    <t>zerohedge.com</t>
-  </si>
-  <si>
-    <t>decentralized.tv</t>
-  </si>
-  <si>
-    <t>hacked.com</t>
-  </si>
-  <si>
-    <t>zdnet.com</t>
-  </si>
-  <si>
-    <t>yahoo.com</t>
-  </si>
-  <si>
-    <t>venturebeat.com</t>
-  </si>
-  <si>
-    <t>medium.com</t>
-  </si>
-  <si>
-    <t>cnet.com</t>
-  </si>
-  <si>
-    <t>fool.com</t>
-  </si>
-  <si>
-    <t>dzone.com</t>
-  </si>
-  <si>
-    <t>entrepreneur.com</t>
-  </si>
-  <si>
-    <t>bostonglobe.com</t>
-  </si>
-  <si>
-    <t>dailyfintech.com</t>
-  </si>
-  <si>
-    <t>coinbase.com</t>
-  </si>
-  <si>
-    <t>darkreading.com</t>
-  </si>
-  <si>
-    <t>geekwire.com</t>
-  </si>
-  <si>
-    <t>barrons.com</t>
-  </si>
-  <si>
-    <t>digitaltrends.com</t>
-  </si>
-  <si>
-    <t>latimes.com</t>
-  </si>
-  <si>
-    <t>harvard.edu</t>
-  </si>
-  <si>
-    <t>coinfabrik.com</t>
-  </si>
-  <si>
-    <t>digitaljournal.com</t>
-  </si>
-  <si>
-    <t>blocksparks.io</t>
-  </si>
-  <si>
-    <t>crypto-reporter.com</t>
-  </si>
-  <si>
-    <t>morningstar.com</t>
-  </si>
-  <si>
-    <t>bitsonline.com</t>
-  </si>
-  <si>
-    <t>bitcoin.com</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>blockchainresearchnetwork.org</t>
-  </si>
-  <si>
-    <t>ethereumworldnews.com</t>
-  </si>
-  <si>
-    <t>cbinsights.com</t>
-  </si>
-  <si>
-    <t>gizmodo.com</t>
-  </si>
-  <si>
-    <t>theweek.com</t>
   </si>
   <si>
     <t>Query (And Operator)</t>
@@ -2039,10 +1633,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2360,7 +1953,7 @@
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2378,7 +1971,7 @@
         <v>476</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>611</v>
+        <v>477</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2450,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.6">
@@ -2521,7 +2114,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.6">
@@ -2556,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>614</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.6">
@@ -2627,7 +2220,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>615</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.6">
@@ -2806,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>616</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.6">
@@ -2817,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>617</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.6">
@@ -3089,7 +2682,7 @@
         <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>618</v>
+        <v>484</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -3128,7 +2721,7 @@
         <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>619</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.6">
@@ -3235,7 +2828,7 @@
         <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>620</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.6">
@@ -3270,7 +2863,7 @@
         <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>621</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.6">
@@ -3329,7 +2922,7 @@
         <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>622</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.6">
@@ -3460,7 +3053,7 @@
         <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>623</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.6">
@@ -3531,7 +3124,7 @@
         <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>624</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.6">
@@ -3614,7 +3207,7 @@
         <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>625</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.6">
@@ -3637,7 +3230,7 @@
         <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>626</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.6">
@@ -3672,7 +3265,7 @@
         <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.6">
@@ -3692,7 +3285,7 @@
         <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>628</v>
+        <v>494</v>
       </c>
       <c r="C112" t="str">
         <f>CONCATENATE(A112,", ",B112)</f>
@@ -3719,7 +3312,7 @@
         <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.6">
@@ -3730,7 +3323,7 @@
         <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>630</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.6">
@@ -3762,7 +3355,7 @@
         <v>222</v>
       </c>
       <c r="B118" t="s">
-        <v>631</v>
+        <v>497</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
@@ -3957,7 +3550,7 @@
         <v>253</v>
       </c>
       <c r="C134" t="s">
-        <v>632</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.6">
@@ -4085,7 +3678,7 @@
         <v>274</v>
       </c>
       <c r="B145" t="s">
-        <v>633</v>
+        <v>499</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="7"/>
@@ -4112,7 +3705,7 @@
         <v>278</v>
       </c>
       <c r="C147" t="s">
-        <v>634</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.6">
@@ -4228,7 +3821,7 @@
         <v>297</v>
       </c>
       <c r="B157" t="s">
-        <v>635</v>
+        <v>501</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="8"/>
@@ -4255,7 +3848,7 @@
         <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.6">
@@ -4386,7 +3979,7 @@
         <v>323</v>
       </c>
       <c r="C170" t="s">
-        <v>637</v>
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.6">
@@ -4442,7 +4035,7 @@
         <v>332</v>
       </c>
       <c r="B175" t="s">
-        <v>638</v>
+        <v>504</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="10"/>
@@ -4469,7 +4062,7 @@
         <v>335</v>
       </c>
       <c r="C177" t="s">
-        <v>639</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.6">
@@ -4489,7 +4082,7 @@
         <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>640</v>
+        <v>506</v>
       </c>
       <c r="C179" t="str">
         <f>CONCATENATE(A179,", ",B179)</f>
@@ -4528,7 +4121,7 @@
         <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>641</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.6">
@@ -4551,7 +4144,7 @@
         <v>347</v>
       </c>
       <c r="C184" t="s">
-        <v>642</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.6">
@@ -4610,7 +4203,7 @@
         <v>293</v>
       </c>
       <c r="C189" t="s">
-        <v>643</v>
+        <v>509</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.6">
@@ -4669,7 +4262,7 @@
         <v>366</v>
       </c>
       <c r="C194" t="s">
-        <v>644</v>
+        <v>510</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.6">
@@ -4740,7 +4333,7 @@
         <v>378</v>
       </c>
       <c r="C200" t="s">
-        <v>645</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.6">
@@ -4748,7 +4341,7 @@
         <v>379</v>
       </c>
       <c r="B201" t="s">
-        <v>646</v>
+        <v>512</v>
       </c>
       <c r="C201" t="str">
         <f>CONCATENATE(A201,", ",B201)</f>
@@ -4763,7 +4356,7 @@
         <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>647</v>
+        <v>513</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.6">
@@ -4930,7 +4523,7 @@
         <v>408</v>
       </c>
       <c r="C216" t="s">
-        <v>648</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.6">
@@ -4989,7 +4582,7 @@
         <v>418</v>
       </c>
       <c r="C221" t="s">
-        <v>649</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.6">
@@ -5081,7 +4674,7 @@
         <v>433</v>
       </c>
       <c r="B229" t="s">
-        <v>650</v>
+        <v>516</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="12"/>
@@ -5105,7 +4698,7 @@
         <v>436</v>
       </c>
       <c r="B231" t="s">
-        <v>651</v>
+        <v>517</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="12"/>
@@ -5141,7 +4734,7 @@
         <v>441</v>
       </c>
       <c r="B234" t="s">
-        <v>652</v>
+        <v>518</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="12"/>
@@ -5336,7 +4929,7 @@
         <v>472</v>
       </c>
       <c r="C250" t="s">
-        <v>653</v>
+        <v>519</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.6">
@@ -5349,569 +4942,6 @@
       <c r="C251" t="str">
         <f>CONCATENATE(A251,", ",B251)</f>
         <v>XCP, Counterparty</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D07A5A-AECC-5F41-B8C6-DA722F16229A}">
-  <dimension ref="A1:B68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="29.1484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B11" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>489</v>
-      </c>
-      <c r="B13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
-        <v>490</v>
-      </c>
-      <c r="B14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>492</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" t="s">
-        <v>495</v>
-      </c>
-      <c r="B19" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" t="s">
-        <v>496</v>
-      </c>
-      <c r="B20" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" t="s">
-        <v>497</v>
-      </c>
-      <c r="B21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A22" t="s">
-        <v>498</v>
-      </c>
-      <c r="B22" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A24" t="s">
-        <v>500</v>
-      </c>
-      <c r="B24" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" t="s">
-        <v>501</v>
-      </c>
-      <c r="B25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B26" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" t="s">
-        <v>503</v>
-      </c>
-      <c r="B27" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A28" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A29" t="s">
-        <v>505</v>
-      </c>
-      <c r="B29" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A30" t="s">
-        <v>506</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A31" t="s">
-        <v>507</v>
-      </c>
-      <c r="B31" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>508</v>
-      </c>
-      <c r="B32" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A33" t="s">
-        <v>509</v>
-      </c>
-      <c r="B33" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A34" t="s">
-        <v>510</v>
-      </c>
-      <c r="B34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A35" t="s">
-        <v>511</v>
-      </c>
-      <c r="B35" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A36" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A37" t="s">
-        <v>513</v>
-      </c>
-      <c r="B37" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A38" t="s">
-        <v>514</v>
-      </c>
-      <c r="B38" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A39" t="s">
-        <v>515</v>
-      </c>
-      <c r="B39" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A40" t="s">
-        <v>516</v>
-      </c>
-      <c r="B40" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A41" t="s">
-        <v>517</v>
-      </c>
-      <c r="B41" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A42" t="s">
-        <v>518</v>
-      </c>
-      <c r="B42" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A43" t="s">
-        <v>519</v>
-      </c>
-      <c r="B43" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A44" t="s">
-        <v>520</v>
-      </c>
-      <c r="B44" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A45" t="s">
-        <v>521</v>
-      </c>
-      <c r="B45" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A46" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A47" t="s">
-        <v>523</v>
-      </c>
-      <c r="B47" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A48" t="s">
-        <v>524</v>
-      </c>
-      <c r="B48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A49" t="s">
-        <v>525</v>
-      </c>
-      <c r="B49" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A50" t="s">
-        <v>526</v>
-      </c>
-      <c r="B50" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A51" t="s">
-        <v>527</v>
-      </c>
-      <c r="B51" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A52" t="s">
-        <v>528</v>
-      </c>
-      <c r="B52" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A53" t="s">
-        <v>529</v>
-      </c>
-      <c r="B53" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A54" t="s">
-        <v>530</v>
-      </c>
-      <c r="B54" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A55" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A56" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A57" t="s">
-        <v>533</v>
-      </c>
-      <c r="B57" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A58" t="s">
-        <v>534</v>
-      </c>
-      <c r="B58" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A59" t="s">
-        <v>535</v>
-      </c>
-      <c r="B59" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A60" t="s">
-        <v>536</v>
-      </c>
-      <c r="B60" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A61" t="s">
-        <v>537</v>
-      </c>
-      <c r="B61" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A62" t="s">
-        <v>538</v>
-      </c>
-      <c r="B62" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A63" t="s">
-        <v>539</v>
-      </c>
-      <c r="B63" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A64" t="s">
-        <v>540</v>
-      </c>
-      <c r="B64" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A65" t="s">
-        <v>541</v>
-      </c>
-      <c r="B65" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A66" t="s">
-        <v>542</v>
-      </c>
-      <c r="B66" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A67" t="s">
-        <v>543</v>
-      </c>
-      <c r="B67" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A68" t="s">
-        <v>544</v>
-      </c>
-      <c r="B68" t="s">
-        <v>610</v>
       </c>
     </row>
   </sheetData>
